--- a/data/results/monthly_model/monthlymodel_accuracy.xlsx
+++ b/data/results/monthly_model/monthlymodel_accuracy.xlsx
@@ -443,27 +443,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>FMC CORP</t>
+          <t>TOTALENERGIES SE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.33333333333333</v>
+        <v>81.66666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ALTAGAS LTD</t>
+          <t>FMC CORP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>78.33333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>WEYERHAEUSER CO</t>
+          <t>ALTAGAS LTD</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -473,11 +473,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>STORA ENSO</t>
+          <t>WEYERHAEUSER CO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -487,23 +487,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65</v>
+        <v>81.66666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BHP GROUP</t>
+          <t>STORA ENSO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>INTERNATIONAL PAPER CO</t>
+          <t>BHP GROUP</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -513,7 +513,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TOTALENERGIES SE</t>
+          <t>INTERNATIONAL PAPER CO</t>
         </is>
       </c>
       <c r="B9" t="n">
